--- a/100_python_excersises/points.xlsx
+++ b/100_python_excersises/points.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIGDRIVE\100_python_excersises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NIGDRIVE\Softuni_education\100_python_excersises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBBE588-41F2-4C3B-8976-46465371C1A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4AAF96-D061-4440-AFE1-BCF83DCA5C12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1088,50 +1088,86 @@
       <c r="A92">
         <v>91</v>
       </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B102">
+        <f>SUM(B2:B101)</f>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
